--- a/my_rank/医药制造.xlsx
+++ b/my_rank/医药制造.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6703</v>
+        <v>13960</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9043478260869565</v>
+        <v>0.8294220399483557</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4627</v>
+        <v>7647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4845298281092012</v>
+        <v>0.3499658236500342</v>
       </c>
       <c r="E3" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5350</v>
+        <v>10397</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6307381193124368</v>
+        <v>0.5588212956634009</v>
       </c>
       <c r="E4" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6881</v>
+        <v>14270</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9403437815975733</v>
+        <v>0.8529657477025898</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6615</v>
+        <v>12397</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8865520728008089</v>
+        <v>0.710716184400395</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4809</v>
+        <v>7980</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5213346814964611</v>
+        <v>0.3752563226247437</v>
       </c>
       <c r="E7" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6377</v>
+        <v>12607</v>
       </c>
       <c r="D8" t="n">
-        <v>0.838422649140546</v>
+        <v>0.7266651477177793</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5878</v>
+        <v>10861</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7375126390293225</v>
+        <v>0.5940609098503835</v>
       </c>
       <c r="E9" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6645</v>
+        <v>12513</v>
       </c>
       <c r="D10" t="n">
-        <v>0.892618806875632</v>
+        <v>0.7195260879471406</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6257</v>
+        <v>12509</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8141557128412538</v>
+        <v>0.7192222981696665</v>
       </c>
       <c r="E11" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5190</v>
+        <v>8962</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5983822042467138</v>
+        <v>0.4498367129946078</v>
       </c>
       <c r="E12" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6327</v>
+        <v>12801</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8283114256825076</v>
+        <v>0.7413989519252677</v>
       </c>
       <c r="E13" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5400</v>
+        <v>9325</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6408493427704752</v>
+        <v>0.4774056353003722</v>
       </c>
       <c r="E14" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6523</v>
+        <v>13291</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8679474216380182</v>
+        <v>0.7786131996658312</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5544</v>
+        <v>10788</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6699696663296258</v>
+        <v>0.5885167464114832</v>
       </c>
       <c r="E16" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6463</v>
+        <v>12998</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8558139534883721</v>
+        <v>0.7563605984658617</v>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4383</v>
+        <v>7037</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4351870576339737</v>
+        <v>0.303637882585251</v>
       </c>
       <c r="E18" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5787</v>
+        <v>11622</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7191102123356926</v>
+        <v>0.6518569150148098</v>
       </c>
       <c r="E19" t="n">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5771</v>
+        <v>10285</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7158746208291203</v>
+        <v>0.5503151818941293</v>
       </c>
       <c r="E20" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6743</v>
+        <v>13166</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9124368048533873</v>
+        <v>0.7691197691197691</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6452</v>
+        <v>11780</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8535894843276036</v>
+        <v>0.6638566112250323</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6149</v>
+        <v>10945</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7923154701718907</v>
+        <v>0.6004404951773373</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6395</v>
+        <v>11188</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8420626895854398</v>
+        <v>0.6188957241588821</v>
       </c>
       <c r="E24" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6500</v>
+        <v>11959</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8632962588473205</v>
+        <v>0.6774512037669932</v>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6282</v>
+        <v>11832</v>
       </c>
       <c r="D26" t="n">
-        <v>0.819211324570273</v>
+        <v>0.6678058783321941</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6946</v>
+        <v>15125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9534883720930233</v>
+        <v>0.9179008126376548</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6331</v>
+        <v>11655</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8291203235591507</v>
+        <v>0.6543631806789701</v>
       </c>
       <c r="E28" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6138</v>
+        <v>10971</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7900910010111224</v>
+        <v>0.6024151287309182</v>
       </c>
       <c r="E29" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5356</v>
+        <v>9133</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6319514661274014</v>
+        <v>0.4628237259816207</v>
       </c>
       <c r="E30" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6574</v>
+        <v>12757</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8782608695652174</v>
+        <v>0.7380572643730539</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6666</v>
+        <v>13429</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8968655207280081</v>
+        <v>0.7890939469886838</v>
       </c>
       <c r="E32" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6124</v>
+        <v>12412</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7872598584428716</v>
+        <v>0.7118553960659224</v>
       </c>
       <c r="E33" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4498</v>
+        <v>7435</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4584428715874621</v>
+        <v>0.3338649654439128</v>
       </c>
       <c r="E34" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5925</v>
+        <v>10510</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7470171890798787</v>
+        <v>0.5674033568770411</v>
       </c>
       <c r="E35" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5730</v>
+        <v>10544</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7075834175935288</v>
+        <v>0.56998556998557</v>
       </c>
       <c r="E36" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6923</v>
+        <v>15009</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9488372093023256</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5166</v>
+        <v>9205</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5935288169868554</v>
+        <v>0.4682919419761525</v>
       </c>
       <c r="E38" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6648</v>
+        <v>13733</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8932254802831142</v>
+        <v>0.8121819700767069</v>
       </c>
       <c r="E39" t="n">
         <v>19</v>
@@ -1188,13 +1188,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5297</v>
+        <v>10257</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6200202224469161</v>
+        <v>0.5481886534518113</v>
       </c>
       <c r="E40" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5765</v>
+        <v>10746</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7146612740141557</v>
+        <v>0.5853269537480064</v>
       </c>
       <c r="E41" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6348</v>
+        <v>12096</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8325581395348837</v>
+        <v>0.6878560036454773</v>
       </c>
       <c r="E42" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5022</v>
+        <v>8564</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5644084934277047</v>
+        <v>0.4196096301359459</v>
       </c>
       <c r="E43" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4028</v>
+        <v>5414</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3633973710819009</v>
+        <v>0.1803751803751804</v>
       </c>
       <c r="E44" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5555</v>
+        <v>10324</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6721941354903943</v>
+        <v>0.5532771322245007</v>
       </c>
       <c r="E45" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5018</v>
+        <v>6882</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5635995955510616</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="E46" t="n">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7051</v>
+        <v>15558</v>
       </c>
       <c r="D47" t="n">
-        <v>0.974721941354904</v>
+        <v>0.950786056049214</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6808</v>
+        <v>14239</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9255813953488372</v>
+        <v>0.8506113769271664</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4337</v>
+        <v>8460</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4258847320525784</v>
+        <v>0.4117110959216222</v>
       </c>
       <c r="E49" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>7134</v>
+        <v>15440</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9915065722952477</v>
+        <v>0.9418242576137313</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6355</v>
+        <v>13335</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8339737108190091</v>
+        <v>0.7819548872180451</v>
       </c>
       <c r="E51" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6417</v>
+        <v>12042</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8465116279069768</v>
+        <v>0.6837548416495784</v>
       </c>
       <c r="E52" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
@@ -1435,10 +1435,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6882</v>
+        <v>14731</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9405460060667341</v>
+        <v>0.887977519556467</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3113</v>
+        <v>5111</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1783619817997978</v>
+        <v>0.1573631047315258</v>
       </c>
       <c r="E54" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6629</v>
+        <v>12430</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8893832153690596</v>
+        <v>0.7132224500645553</v>
       </c>
       <c r="E55" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6753</v>
+        <v>14733</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9144590495449949</v>
+        <v>0.8881294144452039</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6525</v>
+        <v>13995</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8683518705763398</v>
+        <v>0.8320802005012531</v>
       </c>
       <c r="E57" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -1530,13 +1530,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6696</v>
+        <v>14064</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9029322548028311</v>
+        <v>0.8373205741626795</v>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -1549,13 +1549,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4718</v>
+        <v>8266</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5029322548028311</v>
+        <v>0.3969772917141338</v>
       </c>
       <c r="E59" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
@@ -1568,13 +1568,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5536</v>
+        <v>10156</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6683518705763397</v>
+        <v>0.5405179615705932</v>
       </c>
       <c r="E60" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4700</v>
+        <v>6628</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4992922143579373</v>
+        <v>0.2725753778385357</v>
       </c>
       <c r="E61" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6396</v>
+        <v>12185</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8422649140546006</v>
+        <v>0.6946153261942736</v>
       </c>
       <c r="E62" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5002</v>
+        <v>7812</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5603640040444894</v>
+        <v>0.3624971519708362</v>
       </c>
       <c r="E63" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6692</v>
+        <v>13513</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9021233569261881</v>
+        <v>0.7954735323156376</v>
       </c>
       <c r="E64" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6059</v>
+        <v>12928</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7741152679474217</v>
+        <v>0.7510442773600668</v>
       </c>
       <c r="E65" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6575</v>
+        <v>13851</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8784630940343782</v>
+        <v>0.8211437685121896</v>
       </c>
       <c r="E66" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -1701,13 +1701,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3265</v>
+        <v>4460</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2091001011122346</v>
+        <v>0.1079213184476342</v>
       </c>
       <c r="E67" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68">
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6711</v>
+        <v>13918</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9059656218402427</v>
+        <v>0.8262322472848789</v>
       </c>
       <c r="E68" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6013</v>
+        <v>10287</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7648129423660263</v>
+        <v>0.5504670767828662</v>
       </c>
       <c r="E69" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5232</v>
+        <v>9937</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6068756319514661</v>
+        <v>0.5238854712538923</v>
       </c>
       <c r="E70" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4220</v>
+        <v>7078</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4022244691607684</v>
+        <v>0.3067517278043594</v>
       </c>
       <c r="E71" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4631</v>
+        <v>6898</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4853387259858443</v>
+        <v>0.2930811878180299</v>
       </c>
       <c r="E72" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6588</v>
+        <v>12509</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8810920121334681</v>
+        <v>0.7192222981696665</v>
       </c>
       <c r="E73" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6073</v>
+        <v>10667</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7769464105156724</v>
+        <v>0.5793271056428951</v>
       </c>
       <c r="E74" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6885</v>
+        <v>14529</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9411526794742163</v>
+        <v>0.8726361357940305</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -1872,10 +1872,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3462</v>
+        <v>5181</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248938321536906</v>
+        <v>0.1626794258373206</v>
       </c>
       <c r="E76" t="n">
         <v>129</v>
@@ -1891,13 +1891,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4306</v>
+        <v>6938</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4196157735085945</v>
+        <v>0.2961190855927698</v>
       </c>
       <c r="E77" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
@@ -1910,13 +1910,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6296</v>
+        <v>12597</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8220424671385238</v>
+        <v>0.7259056732740943</v>
       </c>
       <c r="E78" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2987</v>
+        <v>3889</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1528816986855409</v>
+        <v>0.06455532771322245</v>
       </c>
       <c r="E79" t="n">
         <v>132</v>
@@ -1948,13 +1948,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6357</v>
+        <v>12972</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8343781597573307</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="E80" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5151</v>
+        <v>8771</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5904954499494439</v>
+        <v>0.4353307511202248</v>
       </c>
       <c r="E81" t="n">
         <v>101</v>
@@ -1986,13 +1986,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5936</v>
+        <v>10929</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7492416582406471</v>
+        <v>0.5992253360674413</v>
       </c>
       <c r="E82" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5870</v>
+        <v>10320</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7358948432760364</v>
+        <v>0.5529733424470267</v>
       </c>
       <c r="E83" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6225</v>
+        <v>12720</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8076845298281092</v>
+        <v>0.7352472089314195</v>
       </c>
       <c r="E84" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -2043,13 +2043,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5719</v>
+        <v>10356</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7053589484327604</v>
+        <v>0.5557074504442926</v>
       </c>
       <c r="E85" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5735</v>
+        <v>11524</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7085945399393326</v>
+        <v>0.644414065466697</v>
       </c>
       <c r="E86" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2231</v>
+        <v>3039</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5186</v>
+        <v>9578</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5975733063700708</v>
+        <v>0.4966203387256019</v>
       </c>
       <c r="E88" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4356</v>
+        <v>6706</v>
       </c>
       <c r="D89" t="n">
-        <v>0.429726996966633</v>
+        <v>0.2784992784992785</v>
       </c>
       <c r="E89" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7049</v>
+        <v>15288</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9743174924165824</v>
+        <v>0.9302802460697197</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5902</v>
+        <v>11162</v>
       </c>
       <c r="D91" t="n">
-        <v>0.742366026289181</v>
+        <v>0.6169210906053011</v>
       </c>
       <c r="E91" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5660</v>
+        <v>10202</v>
       </c>
       <c r="D92" t="n">
-        <v>0.693427704752275</v>
+        <v>0.5440115440115441</v>
       </c>
       <c r="E92" t="n">
         <v>83</v>
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5780</v>
+        <v>10077</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7176946410515672</v>
+        <v>0.5345181134654818</v>
       </c>
       <c r="E93" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6532</v>
+        <v>12825</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8697674418604651</v>
+        <v>0.7432216905901117</v>
       </c>
       <c r="E94" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5717</v>
+        <v>10429</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7049544994944388</v>
+        <v>0.5612516138831928</v>
       </c>
       <c r="E95" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5791</v>
+        <v>11307</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7199191102123357</v>
+        <v>0.6279334700387332</v>
       </c>
       <c r="E96" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97">
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6416</v>
+        <v>11856</v>
       </c>
       <c r="D97" t="n">
-        <v>0.846309403437816</v>
+        <v>0.669628616997038</v>
       </c>
       <c r="E97" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
@@ -2290,13 +2290,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6538</v>
+        <v>14263</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8709807886754297</v>
+        <v>0.8524341155920103</v>
       </c>
       <c r="E98" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -2309,13 +2309,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5302</v>
+        <v>8535</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6210313447927199</v>
+        <v>0.4174071542492595</v>
       </c>
       <c r="E99" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6190</v>
+        <v>9860</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8006066734074823</v>
+        <v>0.5180375180375181</v>
       </c>
       <c r="E100" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101">
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5368</v>
+        <v>9673</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6343781597573306</v>
+        <v>0.5038353459406091</v>
       </c>
       <c r="E101" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102">
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4596</v>
+        <v>8636</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.4250778461304777</v>
       </c>
       <c r="E102" t="n">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6418</v>
+        <v>11479</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8467138523761375</v>
+        <v>0.6409964304701147</v>
       </c>
       <c r="E103" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6381</v>
+        <v>12916</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8392315470171891</v>
+        <v>0.7501329080276449</v>
       </c>
       <c r="E104" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
@@ -2423,13 +2423,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6536</v>
+        <v>9991</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8705763397371082</v>
+        <v>0.5279866332497911</v>
       </c>
       <c r="E105" t="n">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6149</v>
+        <v>11831</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7923154701718907</v>
+        <v>0.6677299308878256</v>
       </c>
       <c r="E106" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4899</v>
+        <v>8095</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5395348837209303</v>
+        <v>0.3839902787271208</v>
       </c>
       <c r="E107" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108">
@@ -2480,13 +2480,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4741</v>
+        <v>8422</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5075834175935288</v>
+        <v>0.4088250930356194</v>
       </c>
       <c r="E108" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109">
@@ -2499,13 +2499,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4523</v>
+        <v>8594</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4634984833164813</v>
+        <v>0.4218880534670008</v>
       </c>
       <c r="E109" t="n">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
@@ -2518,13 +2518,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5017</v>
+        <v>8336</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5633973710819009</v>
+        <v>0.4022936128199286</v>
       </c>
       <c r="E110" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
@@ -2537,13 +2537,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5343</v>
+        <v>9852</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6293225480283114</v>
+        <v>0.51742993848257</v>
       </c>
       <c r="E111" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
@@ -2556,13 +2556,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3667</v>
+        <v>6077</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2903943377148635</v>
+        <v>0.2307283359914939</v>
       </c>
       <c r="E112" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113">
@@ -2575,13 +2575,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>5920</v>
+        <v>10712</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7460060667340748</v>
+        <v>0.5827447406394775</v>
       </c>
       <c r="E113" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7176</v>
+        <v>16206</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2613,13 +2613,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6980</v>
+        <v>15367</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9603640040444894</v>
+        <v>0.936280094174831</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -2632,13 +2632,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6049</v>
+        <v>11282</v>
       </c>
       <c r="D116" t="n">
-        <v>0.772093023255814</v>
+        <v>0.6260347839295207</v>
       </c>
       <c r="E116" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5614</v>
+        <v>9839</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6841253791708797</v>
+        <v>0.5164426217057796</v>
       </c>
       <c r="E117" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118">
@@ -2670,13 +2670,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4496</v>
+        <v>6311</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4580384226491405</v>
+        <v>0.2485000379737222</v>
       </c>
       <c r="E118" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>5052</v>
+        <v>9716</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5704752275025278</v>
+        <v>0.5071010860484545</v>
       </c>
       <c r="E119" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120">
@@ -2708,13 +2708,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4931</v>
+        <v>7091</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5460060667340748</v>
+        <v>0.3077390445811499</v>
       </c>
       <c r="E120" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5782</v>
+        <v>10698</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7180990899898888</v>
+        <v>0.5816814764183186</v>
       </c>
       <c r="E121" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122">
@@ -2746,13 +2746,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6259</v>
+        <v>12584</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8145601617795754</v>
+        <v>0.7249183564973039</v>
       </c>
       <c r="E122" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5859</v>
+        <v>10685</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7336703741152679</v>
+        <v>0.580694159641528</v>
       </c>
       <c r="E123" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124">
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6361</v>
+        <v>11432</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8351870576339737</v>
+        <v>0.6374269005847953</v>
       </c>
       <c r="E124" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125">
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5800</v>
+        <v>10128</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7217391304347827</v>
+        <v>0.5383914331282752</v>
       </c>
       <c r="E125" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126">
@@ -2822,13 +2822,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5777</v>
+        <v>10384</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7170879676440849</v>
+        <v>0.5578339788866105</v>
       </c>
       <c r="E126" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127">
@@ -2841,13 +2841,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>5698</v>
+        <v>10678</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7011122345803842</v>
+        <v>0.5801625275309485</v>
       </c>
       <c r="E127" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128">
@@ -2860,13 +2860,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>4353</v>
+        <v>7491</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4291203235591506</v>
+        <v>0.3381180223285487</v>
       </c>
       <c r="E128" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129">
@@ -2879,13 +2879,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5326</v>
+        <v>9138</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6258847320525783</v>
+        <v>0.4632034632034632</v>
       </c>
       <c r="E129" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130">
@@ -2898,13 +2898,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6508</v>
+        <v>11903</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8649140546006067</v>
+        <v>0.6731981468823575</v>
       </c>
       <c r="E130" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
@@ -2917,13 +2917,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4872</v>
+        <v>8460</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5340748230535894</v>
+        <v>0.4117110959216222</v>
       </c>
       <c r="E131" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132">
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4662</v>
+        <v>7598</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4916076845298281</v>
+        <v>0.3462443988759778</v>
       </c>
       <c r="E132" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133">
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>5960</v>
+        <v>10644</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7540950455005055</v>
+        <v>0.5775803144224196</v>
       </c>
       <c r="E133" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5251</v>
+        <v>9740</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6107178968655207</v>
+        <v>0.5089238247132984</v>
       </c>
       <c r="E134" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
